--- a/Phase2-Project Design document/data/employee.xlsx
+++ b/Phase2-Project Design document/data/employee.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>325,3</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>pswd</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -472,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,11 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +508,7 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +539,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -562,8 +577,14 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -594,8 +615,14 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -626,8 +653,14 @@
       <c r="J4" t="s">
         <v>14</v>
       </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -658,8 +691,14 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -690,8 +729,14 @@
       <c r="J6" t="s">
         <v>14</v>
       </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -722,8 +767,14 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -754,8 +805,14 @@
       <c r="J8">
         <v>2</v>
       </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -785,6 +842,12 @@
       </c>
       <c r="J9">
         <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
